--- a/WebScrapingNetwork/website&ip.xlsx
+++ b/WebScrapingNetwork/website&ip.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B37"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,524 +453,103 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t xml:space="preserve">142.251.220.13
-</t>
+          <t>142.251.220.13\\n</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>iqiyi.com</t>
+          <t>www.baidu.com</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t xml:space="preserve">116.211.199.234
-116.211.199.232
-116.211.201.189
-</t>
+          <t>183.2.172.185\\n183.2.172.42\\n</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>www.iqiyi.com</t>
+          <t>dss0.bdstatic.com</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t xml:space="preserve">59.36.206.8
-59.36.206.2
-59.36.206.7
-</t>
+          <t>39.91.182.33\\n</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>www.iqiyipic.com</t>
+          <t>pss.bdstatic.com</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t xml:space="preserve">222.73.33.243
-222.73.33.249
-222.73.33.242
-</t>
+          <t>112.84.34.36\\n</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>static-s.iqiyi.com</t>
+          <t>hectorstatic.baidu.com</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t xml:space="preserve">222.73.33.242
-222.73.33.243
-222.73.33.249
-</t>
+          <t>117.68.52.38\\n122.228.115.38\\n</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>stc.iqiyipic.com</t>
+          <t>sp1.baidu.com</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t xml:space="preserve">59.36.206.8
-59.36.206.2
-59.36.206.7
-</t>
+          <t>183.2.172.42\\n183.2.172.185\\n</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>pic1.iqiyipic.com</t>
+          <t>hector.baidu.com</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t xml:space="preserve">221.228.120.78
-58.220.53.83
-58.220.53.87
-</t>
+          <t>39.156.68.81\\n</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>pic2.iqiyipic.com</t>
+          <t>sp2.baidu.com</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t xml:space="preserve">221.228.120.78
-58.220.53.83
-58.220.53.87
-</t>
+          <t>183.2.172.42\\n183.2.172.185\\n</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>pic9.iqiyipic.com</t>
+          <t>content-autofill.googleapis.com</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t xml:space="preserve">58.220.53.83
-58.220.53.87
-221.228.120.78
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>pic5.iqiyipic.com</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">58.220.53.83
-58.220.53.87
-221.228.120.78
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>pic3.iqiyipic.com</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">58.220.53.87
-221.228.120.78
-58.220.53.83
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>pic7.iqiyipic.com</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t xml:space="preserve">58.220.53.83
-58.220.53.87
-221.228.120.78
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>pic0.iqiyipic.com</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t xml:space="preserve">221.228.120.78
-58.220.53.83
-58.220.53.87
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>pic6.iqiyipic.com</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t xml:space="preserve">221.228.120.78
-58.220.53.83
-58.220.53.87
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>content-autofill.googleapis.com</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t xml:space="preserve">142.251.220.10
-142.251.220.42
-142.251.220.74
-142.251.220.106
-142.251.130.10
-142.251.222.202
-172.217.27.42
-172.217.31.10
-142.250.199.74
-142.250.204.42
-142.250.204.74
-142.250.204.106
-142.250.204.138
-172.217.24.74
-216.58.200.234
-216.58.203.74
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>pic8.iqiyipic.com</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t xml:space="preserve">221.228.120.78
-58.220.53.83
-58.220.53.87
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>msg.qy.net</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t xml:space="preserve">124.237.225.14
-106.38.178.43
-106.38.178.44
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>apisgame.iqiyi.com</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t xml:space="preserve">106.38.178.213
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>static.iqiyi.com</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t xml:space="preserve">59.36.206.7
-59.36.206.8
-59.36.206.2
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>act.vip.iqiyi.com</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t xml:space="preserve">124.237.225.55
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>mesh.if.iqiyi.com</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t xml:space="preserve">59.39.2.11
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>security.iqiyi.com</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t xml:space="preserve">59.36.206.2
-59.36.206.7
-59.36.206.8
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>pcw-api.iqiyi.com</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t xml:space="preserve">59.39.2.11
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>static.qiyi.com</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t xml:space="preserve">59.36.206.7
-59.36.206.8
-59.36.206.2
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>zz.bdstatic.com</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t xml:space="preserve">220.169.152.48
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>static.g.iqiyi.com</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t xml:space="preserve">59.36.206.7
-59.36.206.8
-59.36.206.2
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>cook.iqiyi.com</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t xml:space="preserve">116.211.202.247
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>t7z.cupid.iqiyi.com</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t xml:space="preserve">116.211.198.128
-116.211.202.162
-116.211.202.140
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>sp0.baidu.com</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t xml:space="preserve">183.2.172.42
-183.2.172.185
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>pic4.iqiyipic.com</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t xml:space="preserve">58.220.53.87
-221.228.120.78
-58.220.53.83
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>dfp-business.iqiyi.com</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t xml:space="preserve">59.39.2.11
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>statics-web.iqiyi.com</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t xml:space="preserve">59.36.206.8
-59.36.206.2
-59.36.206.7
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>mpaas.iqiyi.com</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t xml:space="preserve">59.39.2.11
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>pcw-data.video.iqiyi.com</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t xml:space="preserve">59.39.2.6
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>puma-api.iqiyi.com</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t xml:space="preserve">116.211.198.187
-124.237.225.103
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>cache.video.iqiyi.com</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t xml:space="preserve">116.211.202.222
-</t>
+          <t>216.58.203.74\\n142.251.220.10\\n142.250.207.74\\n172.217.24.106\\n172.217.24.234\\n172.217.25.10\\n172.217.27.10\\n172.217.27.42\\n172.217.31.10\\n142.250.199.74\\n142.250.204.42\\n142.250.204.74\\n142.250.204.106\\n142.250.204.138\\n172.217.24.74\\n216.58.200.234\\n</t>
         </is>
       </c>
     </row>

--- a/WebScrapingNetwork/website&ip.xlsx
+++ b/WebScrapingNetwork/website&ip.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,103 +453,251 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>142.251.220.13\\n</t>
+          <t xml:space="preserve">142.251.130.13
+</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>www.baidu.com</t>
+          <t>www.126.com</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>183.2.172.185\\n183.2.172.42\\n</t>
+          <t xml:space="preserve">220.181.72.180
+</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>dss0.bdstatic.com</t>
+          <t>urswebzj.nosdn.127.net</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>39.91.182.33\\n</t>
+          <t xml:space="preserve">119.188.91.244
+119.188.91.241
+119.167.137.106
+119.167.137.102
+119.167.137.105
+119.188.91.242
+119.188.91.238
+119.188.91.243
+</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>pss.bdstatic.com</t>
+          <t>mimg.127.net</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>112.84.34.36\\n</t>
+          <t xml:space="preserve">61.170.81.231
+61.170.81.215
+61.170.81.250
+</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>hectorstatic.baidu.com</t>
+          <t>dl.reg.163.com</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>117.68.52.38\\n122.228.115.38\\n</t>
+          <t xml:space="preserve">223.252.215.2
+</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>sp1.baidu.com</t>
+          <t>passport.126.com</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>183.2.172.42\\n183.2.172.185\\n</t>
+          <t xml:space="preserve">223.252.215.4
+</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>hector.baidu.com</t>
+          <t>onegoods.nosdn.127.net</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>39.156.68.81\\n</t>
+          <t xml:space="preserve">119.188.91.238
+119.188.91.223
+119.188.91.237
+119.188.91.241
+119.167.137.74
+119.167.137.101
+119.188.91.224
+119.167.137.75
+</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>sp2.baidu.com</t>
+          <t>utility.mail.163.com</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>183.2.172.42\\n183.2.172.185\\n</t>
+          <t xml:space="preserve">220.181.12.191
+</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>mail.126.com</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">123.126.96.204
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>countly.mail.163.com</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">111.124.200.205
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>cstaticdun.126.net</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">183.2.193.244
+183.2.193.238
+14.119.65.239
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>fl.reg.163.com</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">59.111.160.204
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
           <t>content-autofill.googleapis.com</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>216.58.203.74\\n142.251.220.10\\n142.250.207.74\\n172.217.24.106\\n172.217.24.234\\n172.217.25.10\\n172.217.27.10\\n172.217.27.42\\n172.217.31.10\\n142.250.199.74\\n142.250.204.42\\n142.250.204.74\\n142.250.204.106\\n142.250.204.138\\n172.217.24.74\\n216.58.200.234\\n</t>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">172.217.27.10
+172.217.27.42
+172.217.31.10
+142.250.199.74
+142.250.204.42
+142.250.204.74
+142.251.130.10
+142.251.222.202
+142.250.66.42
+142.250.66.74
+142.250.66.106
+142.250.66.138
+142.250.207.74
+172.217.24.106
+172.217.24.234
+172.217.25.10
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>pr.nss.netease.com</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">59.111.160.244
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>mail-activity.nosdn.127.net</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">183.2.193.243
+183.2.193.248
+183.2.193.238
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>b.mail.126.com</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">220.181.12.191
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>mail.163.com</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">220.181.12.133
+</t>
         </is>
       </c>
     </row>
